--- a/sonar.xlsx
+++ b/sonar.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Vex-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{870235F7-1234-44E7-81B5-4DE86AB381DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31DE771-F0CD-4F1F-9402-015E49878124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{0EF63C9B-FFF2-4D02-AD5B-8F600880AF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1:$F$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,6 +94,1053 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Distance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Actual Distance (cm)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.676000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.470000000000041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.77399999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190.92399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-933E-40F4-9CED-36606E80490B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1740145775"/>
+        <c:axId val="1740146607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1740145775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Actual Distance </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740146607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1740146607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Average Distance </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740145775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68C0D1B-1FB2-FAC8-F256-756F12288911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1A7695-FE5F-4156-95A3-D8C9D91318FE}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -422,19 +1473,24 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2">
-        <v>40.700000000000003</v>
+        <f>AVERAGE(B3:B52)</f>
+        <v>40.676000000000002</v>
       </c>
       <c r="C2">
-        <v>82</v>
+        <f t="shared" ref="C2:F2" si="0">AVERAGE(C3:C52)</f>
+        <v>82.470000000000041</v>
       </c>
       <c r="D2">
-        <v>120.7</v>
+        <f t="shared" si="0"/>
+        <v>120.77399999999993</v>
       </c>
       <c r="E2">
-        <v>162.69999999999999</v>
+        <f t="shared" si="0"/>
+        <v>161.92399999999998</v>
       </c>
       <c r="F2">
-        <v>173.3</v>
+        <f t="shared" si="0"/>
+        <v>190.92399999999998</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -442,16 +1498,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C3">
-        <v>82.4</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>120.7</v>
       </c>
       <c r="E3">
-        <v>163.6</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="F3">
-        <v>172.3</v>
+        <v>173.3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -465,10 +1521,10 @@
         <v>120.7</v>
       </c>
       <c r="E4">
-        <v>163.1</v>
+        <v>163.6</v>
       </c>
       <c r="F4">
-        <v>202.5</v>
+        <v>172.3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -476,16 +1532,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>82.4</v>
       </c>
       <c r="D5">
         <v>120.7</v>
       </c>
       <c r="E5">
-        <v>162.30000000000001</v>
+        <v>163.1</v>
       </c>
       <c r="F5">
-        <v>202.4</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -493,7 +1549,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C6">
-        <v>81.599999999999994</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>120.7</v>
@@ -502,7 +1558,7 @@
         <v>162.30000000000001</v>
       </c>
       <c r="F6">
-        <v>202</v>
+        <v>202.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -513,13 +1569,13 @@
         <v>81.599999999999994</v>
       </c>
       <c r="D7">
-        <v>121.1</v>
+        <v>120.7</v>
       </c>
       <c r="E7">
         <v>162.30000000000001</v>
       </c>
       <c r="F7">
-        <v>202.5</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -527,16 +1583,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C8">
-        <v>82.4</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="D8">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="E8">
-        <v>162.19999999999999</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="F8">
-        <v>202.8</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -547,7 +1603,7 @@
         <v>82.4</v>
       </c>
       <c r="D9">
-        <v>120.7</v>
+        <v>121.2</v>
       </c>
       <c r="E9">
         <v>162.19999999999999</v>
@@ -561,16 +1617,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C10">
-        <v>83.7</v>
+        <v>82.4</v>
       </c>
       <c r="D10">
         <v>120.7</v>
       </c>
       <c r="E10">
-        <v>162.30000000000001</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="F10">
-        <v>202</v>
+        <v>202.8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -578,16 +1634,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C11">
-        <v>82.5</v>
+        <v>83.7</v>
       </c>
       <c r="D11">
         <v>120.7</v>
       </c>
       <c r="E11">
-        <v>161.80000000000001</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="F11">
-        <v>202.4</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -595,7 +1651,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C12">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="D12">
         <v>120.7</v>
@@ -604,7 +1660,7 @@
         <v>161.80000000000001</v>
       </c>
       <c r="F12">
-        <v>202</v>
+        <v>202.4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -612,16 +1668,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C13">
-        <v>82.8</v>
+        <v>82.4</v>
       </c>
       <c r="D13">
         <v>120.7</v>
       </c>
       <c r="E13">
-        <v>161.9</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F13">
-        <v>202.4</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -629,16 +1685,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C14">
-        <v>83.3</v>
+        <v>82.8</v>
       </c>
       <c r="D14">
         <v>120.7</v>
       </c>
       <c r="E14">
-        <v>161.80000000000001</v>
+        <v>161.9</v>
       </c>
       <c r="F14">
-        <v>173.3</v>
+        <v>202.4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -646,16 +1702,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C15">
-        <v>82.9</v>
+        <v>83.3</v>
       </c>
       <c r="D15">
         <v>120.7</v>
       </c>
       <c r="E15">
-        <v>161.9</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F15">
-        <v>172.8</v>
+        <v>173.3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -669,10 +1725,10 @@
         <v>120.7</v>
       </c>
       <c r="E16">
-        <v>161.80000000000001</v>
+        <v>161.9</v>
       </c>
       <c r="F16">
-        <v>173.3</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -680,16 +1736,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C17">
-        <v>82</v>
+        <v>82.9</v>
       </c>
       <c r="D17">
         <v>120.7</v>
       </c>
       <c r="E17">
-        <v>161.9</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F17">
-        <v>173.7</v>
+        <v>173.3</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -703,10 +1759,10 @@
         <v>120.7</v>
       </c>
       <c r="E18">
-        <v>161.80000000000001</v>
+        <v>161.9</v>
       </c>
       <c r="F18">
-        <v>173.3</v>
+        <v>173.7</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -714,7 +1770,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C19">
-        <v>82.4</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>120.7</v>
@@ -723,41 +1779,41 @@
         <v>161.80000000000001</v>
       </c>
       <c r="F19">
-        <v>172.3</v>
+        <v>173.3</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
-        <v>40.6</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="C20">
-        <v>82.8</v>
+        <v>82.4</v>
       </c>
       <c r="D20">
-        <v>120.8</v>
+        <v>120.7</v>
       </c>
       <c r="E20">
         <v>161.80000000000001</v>
       </c>
       <c r="F20">
-        <v>172.8</v>
+        <v>172.3</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
-        <v>40.700000000000003</v>
+        <v>40.6</v>
       </c>
       <c r="C21">
-        <v>82.4</v>
+        <v>82.8</v>
       </c>
       <c r="D21">
         <v>120.8</v>
       </c>
       <c r="E21">
-        <v>162.30000000000001</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F21">
-        <v>173.3</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -782,16 +1838,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C23">
-        <v>82</v>
+        <v>82.4</v>
       </c>
       <c r="D23">
-        <v>120.7</v>
+        <v>120.8</v>
       </c>
       <c r="E23">
-        <v>161.9</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="F23">
-        <v>201.2</v>
+        <v>173.3</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -805,10 +1861,10 @@
         <v>120.7</v>
       </c>
       <c r="E24">
-        <v>161.80000000000001</v>
+        <v>161.9</v>
       </c>
       <c r="F24">
-        <v>172.9</v>
+        <v>201.2</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -825,7 +1881,7 @@
         <v>161.80000000000001</v>
       </c>
       <c r="F25">
-        <v>201.2</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -833,7 +1889,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C26">
-        <v>82.1</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>120.7</v>
@@ -842,7 +1898,7 @@
         <v>161.80000000000001</v>
       </c>
       <c r="F26">
-        <v>172.8</v>
+        <v>201.2</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -850,7 +1906,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C27">
-        <v>82.4</v>
+        <v>82.1</v>
       </c>
       <c r="D27">
         <v>120.7</v>
@@ -859,7 +1915,7 @@
         <v>161.80000000000001</v>
       </c>
       <c r="F27">
-        <v>172.9</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -867,16 +1923,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C28">
-        <v>82.8</v>
+        <v>82.4</v>
       </c>
       <c r="D28">
         <v>120.7</v>
       </c>
       <c r="E28">
-        <v>161.9</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F28">
-        <v>171.9</v>
+        <v>172.9</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -884,16 +1940,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C29">
-        <v>83.2</v>
+        <v>82.8</v>
       </c>
       <c r="D29">
-        <v>120.8</v>
+        <v>120.7</v>
       </c>
       <c r="E29">
-        <v>162.30000000000001</v>
+        <v>161.9</v>
       </c>
       <c r="F29">
-        <v>172.4</v>
+        <v>171.9</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -901,13 +1957,13 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C30">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="D30">
-        <v>120.7</v>
+        <v>120.8</v>
       </c>
       <c r="E30">
-        <v>161.80000000000001</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="F30">
         <v>172.4</v>
@@ -918,13 +1974,13 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C31">
-        <v>82.4</v>
+        <v>83.3</v>
       </c>
       <c r="D31">
         <v>120.7</v>
       </c>
       <c r="E31">
-        <v>161.9</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F31">
         <v>172.4</v>
@@ -932,19 +1988,19 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B32">
-        <v>40.6</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="C32">
-        <v>82</v>
+        <v>82.4</v>
       </c>
       <c r="D32">
         <v>120.7</v>
       </c>
       <c r="E32">
-        <v>161.80000000000001</v>
+        <v>161.9</v>
       </c>
       <c r="F32">
-        <v>202</v>
+        <v>172.4</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -952,13 +2008,13 @@
         <v>40.6</v>
       </c>
       <c r="C33">
-        <v>82.4</v>
+        <v>82</v>
       </c>
       <c r="D33">
         <v>120.7</v>
       </c>
       <c r="E33">
-        <v>161.9</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F33">
         <v>202</v>
@@ -966,16 +2022,16 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34">
-        <v>40.700000000000003</v>
+        <v>40.6</v>
       </c>
       <c r="C34">
-        <v>82</v>
+        <v>82.4</v>
       </c>
       <c r="D34">
         <v>120.7</v>
       </c>
       <c r="E34">
-        <v>161.80000000000001</v>
+        <v>161.9</v>
       </c>
       <c r="F34">
         <v>202</v>
@@ -986,7 +2042,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C35">
-        <v>82.4</v>
+        <v>82</v>
       </c>
       <c r="D35">
         <v>120.7</v>
@@ -1000,10 +2056,10 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B36">
-        <v>40.6</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="C36">
-        <v>82.9</v>
+        <v>82.4</v>
       </c>
       <c r="D36">
         <v>120.7</v>
@@ -1017,27 +2073,27 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B37">
-        <v>40.700000000000003</v>
+        <v>40.6</v>
       </c>
       <c r="C37">
-        <v>82.8</v>
+        <v>82.9</v>
       </c>
       <c r="D37">
         <v>120.7</v>
       </c>
       <c r="E37">
-        <v>161.4</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F37">
-        <v>201.6</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B38">
-        <v>40.6</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="C38">
-        <v>83.2</v>
+        <v>82.8</v>
       </c>
       <c r="D38">
         <v>120.7</v>
@@ -1046,7 +2102,7 @@
         <v>161.4</v>
       </c>
       <c r="F38">
-        <v>172.4</v>
+        <v>201.6</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -1054,7 +2110,7 @@
         <v>40.6</v>
       </c>
       <c r="C39">
-        <v>82.8</v>
+        <v>83.2</v>
       </c>
       <c r="D39">
         <v>120.7</v>
@@ -1063,7 +2119,7 @@
         <v>161.4</v>
       </c>
       <c r="F39">
-        <v>202</v>
+        <v>172.4</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -1071,7 +2127,7 @@
         <v>40.6</v>
       </c>
       <c r="C40">
-        <v>82.4</v>
+        <v>82.8</v>
       </c>
       <c r="D40">
         <v>120.7</v>
@@ -1085,16 +2141,16 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B41">
-        <v>40.700000000000003</v>
+        <v>40.6</v>
       </c>
       <c r="C41">
         <v>82.4</v>
       </c>
       <c r="D41">
-        <v>121.2</v>
+        <v>120.7</v>
       </c>
       <c r="E41">
-        <v>161.5</v>
+        <v>161.4</v>
       </c>
       <c r="F41">
         <v>202</v>
@@ -1102,10 +2158,10 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B42">
-        <v>40.6</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="C42">
-        <v>82.8</v>
+        <v>82.4</v>
       </c>
       <c r="D42">
         <v>121.2</v>
@@ -1125,10 +2181,10 @@
         <v>82.8</v>
       </c>
       <c r="D43">
-        <v>121.1</v>
+        <v>121.2</v>
       </c>
       <c r="E43">
-        <v>161.9</v>
+        <v>161.5</v>
       </c>
       <c r="F43">
         <v>202</v>
@@ -1139,13 +2195,13 @@
         <v>40.6</v>
       </c>
       <c r="C44">
-        <v>82.4</v>
+        <v>82.8</v>
       </c>
       <c r="D44">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="E44">
-        <v>161.4</v>
+        <v>161.9</v>
       </c>
       <c r="F44">
         <v>202</v>
@@ -1156,10 +2212,10 @@
         <v>40.6</v>
       </c>
       <c r="C45">
-        <v>81.599999999999994</v>
+        <v>82.4</v>
       </c>
       <c r="D45">
-        <v>120.7</v>
+        <v>121.2</v>
       </c>
       <c r="E45">
         <v>161.4</v>
@@ -1173,7 +2229,7 @@
         <v>40.6</v>
       </c>
       <c r="C46">
-        <v>82</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="D46">
         <v>120.7</v>
@@ -1187,10 +2243,10 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B47">
-        <v>40.700000000000003</v>
+        <v>40.6</v>
       </c>
       <c r="C47">
-        <v>82.4</v>
+        <v>82</v>
       </c>
       <c r="D47">
         <v>120.7</v>
@@ -1207,13 +2263,13 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C48">
-        <v>82.9</v>
+        <v>82.4</v>
       </c>
       <c r="D48">
         <v>120.7</v>
       </c>
       <c r="E48">
-        <v>161.80000000000001</v>
+        <v>161.4</v>
       </c>
       <c r="F48">
         <v>202</v>
@@ -1241,16 +2297,16 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C50">
-        <v>82.5</v>
+        <v>82.9</v>
       </c>
       <c r="D50">
-        <v>121.2</v>
+        <v>120.7</v>
       </c>
       <c r="E50">
-        <v>162.30000000000001</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F50">
-        <v>201.1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -1258,20 +2314,38 @@
         <v>40.700000000000003</v>
       </c>
       <c r="C51">
+        <v>82.5</v>
+      </c>
+      <c r="D51">
+        <v>121.2</v>
+      </c>
+      <c r="E51">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="F51">
+        <v>201.1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C52">
         <v>82.4</v>
       </c>
-      <c r="D51">
-        <v>120.7</v>
-      </c>
-      <c r="E51">
+      <c r="D52">
+        <v>120.7</v>
+      </c>
+      <c r="E52">
         <v>162.19999999999999</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>201.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>